--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_CashFundProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_CashFundProfile_AddNewProfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC4C61-2031-41B1-A2F6-CE8235621CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2542697-9810-4AC7-AC3B-4FA49D95ED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Keyword</t>
   </si>
@@ -70,9 +70,6 @@
     <t>txt_cashFund_cf</t>
   </si>
   <si>
-    <t>txt_title_cf</t>
-  </si>
-  <si>
     <t>Iteration</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Adarsh</t>
   </si>
   <si>
-    <t>dropdown_Agency_cashFund</t>
-  </si>
-  <si>
     <t>selectByVisibleText</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>getConfigData=ReqDueDate</t>
   </si>
   <si>
-    <t>txt_endDate_cf</t>
-  </si>
-  <si>
     <t>ReqDueDate</t>
   </si>
   <si>
@@ -160,13 +151,34 @@
     <t>2080</t>
   </si>
   <si>
-    <t>button_saveDetails_cf</t>
-  </si>
-  <si>
     <t>jsClick</t>
   </si>
   <si>
     <t>J02</t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>txt_endDate</t>
+  </si>
+  <si>
+    <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>dropdown_agency_cf</t>
+  </si>
+  <si>
+    <t>AddNewProfile_CashFundProfile</t>
   </si>
 </sst>
 </file>
@@ -614,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FCE01C-7500-4A8B-985D-BEF618A6C4BC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,27 +678,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -694,13 +704,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -708,13 +718,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -722,13 +732,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -736,13 +746,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -750,24 +760,24 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>42</v>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -777,17 +787,29 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
@@ -801,7 +823,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -809,7 +831,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -817,9 +839,25 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -832,7 +870,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,37 +890,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -890,31 +928,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>12212</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6">
         <v>2023</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="6"/>
     </row>
